--- a/data/trans_bre/P22_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P22_R2-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.037129495282295</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1058939598400171</v>
+        <v>0.1058939598400158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1149265947148301</v>
@@ -649,7 +649,7 @@
         <v>-0.4766237157012231</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.01455965087820547</v>
+        <v>0.01455965087820527</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.354959470699406</v>
+        <v>-3.498520427423266</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1121990848919335</v>
+        <v>0.08599193428089061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.585233978916911</v>
+        <v>-4.562938180293643</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.629636287762134</v>
+        <v>-6.092822096345388</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5197626519589637</v>
+        <v>-0.5549631925744205</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.06357945264768362</v>
+        <v>-0.0056083060132555</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7879631829599879</v>
+        <v>-0.780275797866396</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6191616391015826</v>
+        <v>-0.5864174889898904</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.012368894457812</v>
+        <v>2.083347521195074</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.959144644393443</v>
+        <v>4.746787492390784</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5574127992299494</v>
+        <v>0.3534566817255698</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.093278386308713</v>
+        <v>5.334261174744715</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.600717265994405</v>
+        <v>0.5882644860399391</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.67034368113853</v>
+        <v>4.226715568215333</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3143855809912505</v>
+        <v>0.220310115782879</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.227875421396364</v>
+        <v>1.1394329467192</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.800311783760396</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.44530586549298</v>
+        <v>7.445305865492975</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04823519813671905</v>
@@ -749,7 +749,7 @@
         <v>0.9764692375754003</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.327035239658066</v>
+        <v>1.327035239658065</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.380478253020427</v>
+        <v>-2.382100114061634</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.332400301424326</v>
+        <v>-4.194798556183142</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.171865848713562</v>
+        <v>0.9758408742494655</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.328687600707347</v>
+        <v>3.249721285333071</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.325839987767447</v>
+        <v>-0.2948289817003822</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5101015442540477</v>
+        <v>-0.5021936181384249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1641730311959686</v>
+        <v>0.1725895080098076</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3646986568963455</v>
+        <v>0.3444452313831833</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.141852864183269</v>
+        <v>3.180927128446708</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.176291089619106</v>
+        <v>1.027521984500197</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.49035212168774</v>
+        <v>6.786378169669869</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.7593454882618</v>
+        <v>11.52259550035179</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6096121889740179</v>
+        <v>0.601281375167842</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2196075902021123</v>
+        <v>0.1954927869084011</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.233155879575659</v>
+        <v>2.46907541464995</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.476461560693418</v>
+        <v>3.003248345490464</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.260701845608073</v>
+        <v>-7.236792459088337</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.697575451948683</v>
+        <v>-4.725521575072475</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.483655515931346</v>
+        <v>-2.395338451540879</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.17443560233605</v>
+        <v>-5.163922503665744</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6137322297845518</v>
+        <v>-0.6129008029736781</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5455622544941492</v>
+        <v>-0.5458590788230963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3934989266580338</v>
+        <v>-0.3609783089959038</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3505074313916104</v>
+        <v>-0.3543137388803181</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.293335919877069</v>
+        <v>-0.9293945282085344</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5436873893842762</v>
+        <v>0.696609285474459</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.631183460352996</v>
+        <v>2.421702820673287</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.582071739271358</v>
+        <v>2.233337839427628</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1512907706207079</v>
+        <v>-0.0999528170159579</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1800299124272745</v>
+        <v>0.1209193791814948</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6858647862670723</v>
+        <v>0.5956309124218215</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1640771510294878</v>
+        <v>0.2327565943816634</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.4044340286483407</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.35485316460514</v>
+        <v>0.3548531646051428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2383051567163909</v>
@@ -949,7 +949,7 @@
         <v>-0.09563043519947852</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.02683459806124659</v>
+        <v>0.0268345980612468</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.048675982506778</v>
+        <v>-4.64837396839821</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.469275268694016</v>
+        <v>-2.462713235821647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.804189051904006</v>
+        <v>-2.902408295705306</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.093474477670616</v>
+        <v>-3.222668418395178</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5693053937798925</v>
+        <v>-0.5330265998512482</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4232579974958611</v>
+        <v>-0.4233271632896528</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5179026680566833</v>
+        <v>-0.5051285994342608</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2032792916708719</v>
+        <v>-0.2002333986574565</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.073343136548642</v>
+        <v>1.767135401821234</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.015946075179438</v>
+        <v>2.868456218918356</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.839651264520564</v>
+        <v>1.787636200275893</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.828368893444754</v>
+        <v>3.517028968280725</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.243806210671969</v>
+        <v>0.3564309919734943</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8594141345169372</v>
+        <v>0.7876477451851036</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5976322955652105</v>
+        <v>0.5895820135228915</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3426895432210048</v>
+        <v>0.3140365030988653</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.685047448965574</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.179619282223267</v>
+        <v>1.179619282223272</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1546479284052769</v>
@@ -1049,7 +1049,7 @@
         <v>1.474245655098998</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1072333852916244</v>
+        <v>0.1072333852916249</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.262235728165248</v>
+        <v>-5.482079556404751</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.360276535191286</v>
+        <v>-1.688049993263606</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4677775098656762</v>
+        <v>0.4819432484894471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.980086325337266</v>
+        <v>-2.032245481108824</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5121362117338489</v>
+        <v>-0.488364405407577</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3922837941510322</v>
+        <v>-0.4506077835791687</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04760776019997286</v>
+        <v>0.009431621657387645</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1562851594702928</v>
+        <v>-0.1554127684119641</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.804465583716874</v>
+        <v>2.867500916713443</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.809611283894318</v>
+        <v>3.762033829641681</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.308341902972767</v>
+        <v>5.186393761965962</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.466387606601726</v>
+        <v>4.130879169220155</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4560327550239496</v>
+        <v>0.4692886866024503</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.935022843465076</v>
+        <v>2.622881962266856</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5.337872152841855</v>
+        <v>5.003197483930221</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.483835932751106</v>
+        <v>0.4493526782360283</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.6715623572856075</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-1.271064052970666</v>
+        <v>-1.271064052970665</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2751844348258555</v>
@@ -1149,7 +1149,7 @@
         <v>0.3850759379782783</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1357248350947113</v>
+        <v>-0.1357248350947112</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.471773435580313</v>
+        <v>-2.110462383256814</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.731242756178224</v>
+        <v>-2.130877503845909</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.617698110942</v>
+        <v>-1.637018226393153</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.181022424567195</v>
+        <v>-4.747196814723808</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6100492715917927</v>
+        <v>-0.535493071835722</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7089474650300972</v>
+        <v>-0.6507901442093786</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6246421196638704</v>
+        <v>-0.6172330963783592</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3821003145094899</v>
+        <v>-0.4148144891519104</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.227530164836202</v>
+        <v>3.012611641204697</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.833690279336006</v>
+        <v>3.068930125463644</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.138444766038401</v>
+        <v>3.198089848428262</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.811710560138576</v>
+        <v>1.975771143407035</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.619396268832516</v>
+        <v>2.403829287520161</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.968703983383215</v>
+        <v>3.191194340827363</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.125092449993424</v>
+        <v>4.605377040780402</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2415051759382979</v>
+        <v>0.2700668165290925</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>0.6209206312373549</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.3994780749381456</v>
+        <v>-0.3994780749381477</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.145719803078898</v>
@@ -1249,7 +1249,7 @@
         <v>0.343852387187597</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.07873655158113596</v>
+        <v>-0.07873655158113636</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.04695314720292</v>
+        <v>-3.083497290823232</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.647322814129655</v>
+        <v>-3.430736617553597</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.748531010318355</v>
+        <v>-1.566820816706784</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.125324725413935</v>
+        <v>-3.234878631500573</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.9113692769994071</v>
+        <v>-0.9063410849190424</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.9216139804961855</v>
+        <v>-1</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.7207182661793241</v>
+        <v>-0.7046040680747716</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4553933647419908</v>
+        <v>-0.4599593239918708</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.586701769813713</v>
+        <v>1.71744349182735</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.374566520033409</v>
+        <v>1.389436418580847</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.26370270185642</v>
+        <v>3.494770423824092</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.8785124221927</v>
+        <v>1.824639351643657</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.926231805230012</v>
+        <v>3.276589144821888</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>3.068971832100554</v>
+        <v>3.634426688664475</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>4.915603474572021</v>
+        <v>4.708344229038965</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5778013677142092</v>
+        <v>0.4998900355475954</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.621367811779265</v>
+        <v>-2.479902398768143</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.498581330902113</v>
+        <v>-1.482074571810174</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.3434941332693597</v>
+        <v>-0.2124772088586623</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.9438719395943996</v>
+        <v>-0.7820534601010337</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3567967797539096</v>
+        <v>-0.3500654999998164</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.287620948196788</v>
+        <v>-0.2766839046436366</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0916384077969136</v>
+        <v>-0.05237129151390824</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.08794193122103945</v>
+        <v>-0.07233126766968501</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-0.2112469673070985</v>
+        <v>-0.164367729282126</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5740805972920524</v>
+        <v>0.5539297162299934</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.672500051524438</v>
+        <v>1.768719209458439</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.978912845675586</v>
+        <v>2.021029042442662</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.03444307595119095</v>
+        <v>-0.02472541117129945</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1510045869447577</v>
+        <v>0.1450114765065341</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5291934253826357</v>
+        <v>0.5608916388663755</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.221622667934667</v>
+        <v>0.2249016599616746</v>
       </c>
     </row>
     <row r="28">
